--- a/example/Vestas_V126-3.45.xlsx
+++ b/example/Vestas_V126-3.45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meinm\Documents\Git\windea-tool\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4307D0FC-A288-4174-83AF-978B26FB0749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438E1EFF-FEC1-4986-9490-3B1859BDEC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03A84A7B-8957-44B9-8440-B9A0A4779E0B}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,22 +66,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,22 +88,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,35 +409,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE00B9B-25DA-40FE-9911-742AD7BA794B}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -470,11 +439,8 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -484,11 +450,8 @@
       <c r="C4" s="1">
         <v>1.2250000000000001</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -496,11 +459,8 @@
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -508,11 +468,8 @@
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -520,11 +477,8 @@
         <v>35</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -532,11 +486,8 @@
         <v>184</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -544,11 +495,8 @@
         <v>404</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -556,11 +504,8 @@
         <v>725</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -568,11 +513,8 @@
         <v>1172</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -580,11 +522,8 @@
         <v>1760</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -592,11 +531,8 @@
         <v>2482</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -604,11 +540,8 @@
         <v>3187</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -616,11 +549,8 @@
         <v>3433</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -628,11 +558,8 @@
         <v>3450</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -640,11 +567,8 @@
         <v>3450</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -652,11 +576,8 @@
         <v>3450</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -664,11 +585,8 @@
         <v>3450</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -676,11 +594,8 @@
         <v>3450</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -688,11 +603,8 @@
         <v>3450</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -700,11 +612,8 @@
         <v>3450</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -712,11 +621,8 @@
         <v>3450</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -724,11 +630,8 @@
         <v>3450</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -736,11 +639,8 @@
         <v>3450</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -748,11 +648,8 @@
         <v>3450</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -760,11 +657,8 @@
         <v>0</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -772,11 +666,8 @@
         <v>0</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -784,11 +675,8 @@
         <v>0</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -796,11 +684,8 @@
         <v>0</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -808,11 +693,8 @@
         <v>0</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -820,11 +702,8 @@
         <v>0</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -832,11 +711,8 @@
         <v>0</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -844,14 +720,8 @@
         <v>0</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
